--- a/excel/유의어db_정렬변경0402 (1).xlsx
+++ b/excel/유의어db_정렬변경0402 (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohong\Desktop\수집 변환 툴 기획\유의어db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\consolework\tistory-convert\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB0118E-E446-4ED6-932A-9CC637C136B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13620" activeTab="1"/>
+    <workbookView xWindow="-38510" yWindow="-2510" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양방향" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
   <si>
     <t>였다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1579,13 +1580,41 @@
   </si>
   <si>
     <t>것 입니다.=것 이예요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나 효능=바나나 효험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짓고 있다.=짓고 있을까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있다.=있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알려졌다.=알려졌습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졌다.=졌습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입했다.=매입했습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1652,7 +1681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1661,12 +1690,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1956,11 +1979,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S137"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1971,23 +1994,29 @@
     <col min="19" max="19" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -1995,7 +2024,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -2003,23 +2032,23 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -2027,7 +2056,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -2035,7 +2064,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -2043,7 +2072,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -2051,7 +2080,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -2059,7 +2088,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -2067,7 +2096,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -2075,7 +2104,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>390</v>
       </c>
@@ -2083,7 +2112,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>320</v>
       </c>
@@ -2091,7 +2120,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -2100,7 +2129,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>323</v>
       </c>
       <c r="B17" t="s">
@@ -2116,7 +2145,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>303</v>
       </c>
       <c r="B19" t="s">
@@ -2131,7 +2160,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -2148,7 +2177,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B23" t="s">
@@ -2178,7 +2207,7 @@
       <c r="B26" t="s">
         <v>110</v>
       </c>
-      <c r="S26" s="7"/>
+      <c r="S26" s="5"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -2208,7 +2237,7 @@
       <c r="A30" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2253,7 +2282,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>391</v>
       </c>
       <c r="B36" t="s">
@@ -2268,8 +2297,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B38" t="s">
@@ -2325,7 +2354,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
         <v>384</v>
       </c>
       <c r="B45" t="s">
@@ -2340,7 +2369,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -2412,11 +2441,11 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>393</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>411</v>
       </c>
     </row>
@@ -2472,7 +2501,7 @@
       <c r="A63" t="s">
         <v>230</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>369</v>
       </c>
     </row>
@@ -2485,7 +2514,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" t="s">
         <v>365</v>
       </c>
       <c r="B65" t="s">
@@ -2493,7 +2522,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B66" t="s">
@@ -2508,7 +2537,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -2517,7 +2546,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B69" t="s">
@@ -2893,16 +2922,25 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>421</v>
+      </c>
       <c r="B116" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>422</v>
+      </c>
       <c r="B117" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>424</v>
+      </c>
       <c r="B118" t="s">
         <v>326</v>
       </c>
@@ -2990,6 +3028,16 @@
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>413</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -3000,11 +3048,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3625,7 +3673,7 @@
       <c r="A77" t="s">
         <v>317</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s">
         <v>318</v>
       </c>
     </row>

--- a/excel/유의어db_정렬변경0402 (1).xlsx
+++ b/excel/유의어db_정렬변경0402 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\consolework\tistory-convert\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB0118E-E446-4ED6-932A-9CC637C136B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C579EA-127B-402C-967F-5145C2D78366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-2510" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양방향" sheetId="1" r:id="rId1"/>
@@ -1982,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3051,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/excel/유의어db_정렬변경0402 (1).xlsx
+++ b/excel/유의어db_정렬변경0402 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\consolework\tistory-convert\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C579EA-127B-402C-967F-5145C2D78366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ACE227-6854-439A-ACBB-B84BF26B7A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-2510" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양방향" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="429">
   <si>
     <t>였다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1311,10 +1311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>따르면=의하면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중심으로=중점으로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1587,10 +1583,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>짓고 있다.=짓고 있을까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>있다.=있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1608,6 +1600,18 @@
   </si>
   <si>
     <t>매입했다.=매입했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따르면=의하면=의형제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짓고 있다.=짓고 있을까.=짓고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최태원=이재용=김범관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1980,10 +1984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S137"/>
+  <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2002,7 +2006,7 @@
         <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2010,10 +2014,10 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2029,7 +2033,7 @@
         <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2106,7 +2110,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B14" t="s">
         <v>94</v>
@@ -2154,7 +2158,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B20" t="s">
         <v>104</v>
@@ -2283,7 +2287,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B36" t="s">
         <v>128</v>
@@ -2355,7 +2359,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B45" t="s">
         <v>149</v>
@@ -2411,7 +2415,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s">
         <v>160</v>
@@ -2443,10 +2447,10 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2502,7 +2506,7 @@
         <v>230</v>
       </c>
       <c r="B63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2515,7 +2519,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B65" t="s">
         <v>181</v>
@@ -2638,7 +2642,7 @@
         <v>330</v>
       </c>
       <c r="B80" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -2715,7 +2719,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B90" t="s">
         <v>215</v>
@@ -2723,7 +2727,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B91" t="s">
         <v>217</v>
@@ -2731,7 +2735,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B92" t="s">
         <v>218</v>
@@ -2739,7 +2743,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B93" t="s">
         <v>339</v>
@@ -2747,7 +2751,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B94" t="s">
         <v>236</v>
@@ -2763,7 +2767,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B96" t="s">
         <v>289</v>
@@ -2771,7 +2775,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B97" t="s">
         <v>343</v>
@@ -2779,15 +2783,15 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B98" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B99" t="s">
         <v>290</v>
@@ -2795,7 +2799,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B100" t="s">
         <v>292</v>
@@ -2803,7 +2807,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B101" t="s">
         <v>293</v>
@@ -2811,7 +2815,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B102" t="s">
         <v>296</v>
@@ -2819,7 +2823,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B103" t="s">
         <v>338</v>
@@ -2827,7 +2831,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B104" t="s">
         <v>297</v>
@@ -2835,7 +2839,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B105" t="s">
         <v>312</v>
@@ -2843,15 +2847,15 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B107" t="s">
         <v>300</v>
@@ -2859,15 +2863,15 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B108" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B109" t="s">
         <v>301</v>
@@ -2875,7 +2879,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B110" t="s">
         <v>302</v>
@@ -2883,7 +2887,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B111" t="s">
         <v>308</v>
@@ -2891,15 +2895,15 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B112" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B113" t="s">
         <v>309</v>
@@ -2907,7 +2911,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B114" t="s">
         <v>313</v>
@@ -2915,7 +2919,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B115" t="s">
         <v>315</v>
@@ -2923,7 +2927,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B116" t="s">
         <v>316</v>
@@ -2931,7 +2935,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B117" t="s">
         <v>325</v>
@@ -2939,7 +2943,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B118" t="s">
         <v>326</v>
@@ -2992,52 +2996,57 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>353</v>
+        <v>426</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>425</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -3051,7 +3060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -3223,7 +3232,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B21" t="s">
         <v>238</v>
@@ -3679,74 +3688,74 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>360</v>
+      </c>
+      <c r="B78" t="s">
         <v>361</v>
-      </c>
-      <c r="B78" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B79" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>365</v>
+      </c>
+      <c r="B80" t="s">
         <v>366</v>
-      </c>
-      <c r="B80" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>414</v>
+      </c>
+      <c r="B81" t="s">
         <v>415</v>
-      </c>
-      <c r="B81" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B82" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B83" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>404</v>
+      </c>
+      <c r="B84" t="s">
         <v>405</v>
-      </c>
-      <c r="B84" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>407</v>
+      </c>
+      <c r="B85" t="s">
         <v>408</v>
-      </c>
-      <c r="B85" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>418</v>
+      </c>
+      <c r="B86" t="s">
         <v>419</v>
-      </c>
-      <c r="B86" t="s">
-        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/excel/유의어db_정렬변경0402 (1).xlsx
+++ b/excel/유의어db_정렬변경0402 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\consolework\tistory-convert\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ACE227-6854-439A-ACBB-B84BF26B7A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DEED7A-3BBF-444B-A704-FC98DC8ED91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-2510" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양방향" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="434">
   <si>
     <t>였다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1612,6 +1612,26 @@
   </si>
   <si>
     <t>최태원=이재용=김범관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대중=김일성=김정은=마오쩌뚱=안중근=세종대왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이=강아지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1984,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S138"/>
+  <dimension ref="A1:S139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3049,6 +3069,11 @@
         <v>428</v>
       </c>
     </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3058,10 +3083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3758,6 +3783,22 @@
         <v>419</v>
       </c>
     </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>429</v>
+      </c>
+      <c r="B87" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>431</v>
+      </c>
+      <c r="B88" t="s">
+        <v>433</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
